--- a/outputs/extracted_data.xlsx
+++ b/outputs/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Invoice No</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Invoice Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Vendor</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice Date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Due Date</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Amount</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
@@ -503,380 +488,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Invoice_Gamma_Enterprises.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>03-Aug-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Invoice_Gamma_Enterprises.pdf</t>
+          <t>8,500</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>⚠️ Poppler not found. Please install Poppler and set PATH correctly.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Product Qty Unit Rate Total</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>tal</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Invoice_Alpha_Traders.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>total: 28,600</t>
+          <t>12-Oct-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>within 15 days.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Invoice_Alpha_Traders.pdf</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>990 000-0000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>basic-invoice-template.png</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>26/02/2019</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Total
-$204.75</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>proforma-invoice.png</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>get page count.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>get page count.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>get page count.</t>
+          <t>28,600</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>28,600</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>tal</t>
         </is>
       </c>
     </row>
